--- a/charts/4.xlsx
+++ b/charts/4.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36.32</v>
+        <v>125.94</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>38.21</v>
+        <v>118.13</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>37.93</v>
+        <v>116.82</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>40.56</v>
+        <v>113.87</v>
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>39.07</v>
+        <v>125.07</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>42.35</v>
+        <v>109.37</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>39.56</v>
+        <v>132.72</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>43.08</v>
+        <v>110.44</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>38.55</v>
+        <v>117.85</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>37</v>
+        <v>121.56</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.51</v>
+        <v>0.58</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.68</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>33.92</v>
+        <v>31.27</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>30.62</v>
+        <v>34.28</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>30.61</v>
+        <v>34.72</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>34.17</v>
+        <v>32.44</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>31.79</v>
+        <v>34.04</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>30.47</v>
+        <v>30.56</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>31.43</v>
+        <v>33.41</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -1440,7 +1440,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>34.8</v>
+        <v>31.4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>31.79</v>
+        <v>36.74</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -1514,7 +1514,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>32.64</v>
+        <v>31.27</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -1915,14 +1915,8 @@
       <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G42" t="n">
-        <v>17.05</v>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1946,14 +1940,8 @@
       <c r="E43" t="n">
         <v>2</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>18.21</v>
-      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1977,14 +1965,8 @@
       <c r="E44" t="n">
         <v>3</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>18.2</v>
-      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -2008,14 +1990,8 @@
       <c r="E45" t="n">
         <v>4</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>18.51</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -2039,14 +2015,8 @@
       <c r="E46" t="n">
         <v>5</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>16.68</v>
-      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -2070,14 +2040,8 @@
       <c r="E47" t="n">
         <v>6</v>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>17.6</v>
-      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2101,14 +2065,8 @@
       <c r="E48" t="n">
         <v>7</v>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>18.25</v>
-      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2132,14 +2090,8 @@
       <c r="E49" t="n">
         <v>8</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>17.77</v>
-      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2163,14 +2115,8 @@
       <c r="E50" t="n">
         <v>9</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>18.49</v>
-      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2194,14 +2140,8 @@
       <c r="E51" t="n">
         <v>10</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>19.25</v>
-      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2231,7 +2171,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>44.14</v>
+        <v>104.69</v>
       </c>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
@@ -2262,7 +2202,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>45.8</v>
+        <v>102.05</v>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
@@ -2293,7 +2233,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>43.83</v>
+        <v>109.35</v>
       </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -2324,7 +2264,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>44.43</v>
+        <v>100.95</v>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -2355,7 +2295,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>45.03</v>
+        <v>104.84</v>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
@@ -2386,7 +2326,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>45.28</v>
+        <v>101.04</v>
       </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -2417,7 +2357,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>45.2</v>
+        <v>102.67</v>
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
@@ -2448,7 +2388,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>45.77</v>
+        <v>100.1</v>
       </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -2479,7 +2419,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>45.76</v>
+        <v>102.89</v>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
@@ -2510,7 +2450,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>44.2</v>
+        <v>105.15</v>
       </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
@@ -2541,7 +2481,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>14.11</v>
+        <v>14.21</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -2578,7 +2518,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>13.52</v>
+        <v>13.87</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -2615,7 +2555,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>14.67</v>
+        <v>13.27</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -2652,7 +2592,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>14.15</v>
+        <v>14.66</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -2689,7 +2629,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>13.62</v>
+        <v>13.38</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -2726,7 +2666,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>14.26</v>
+        <v>14.58</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -2763,7 +2703,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>13.9</v>
+        <v>15.33</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -2800,7 +2740,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>14.9</v>
+        <v>13.37</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -2874,7 +2814,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>15.09</v>
+        <v>13.42</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -2911,7 +2851,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.69</v>
+        <v>3.78</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -2948,7 +2888,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -2985,7 +2925,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.71</v>
+        <v>4.64</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -3022,7 +2962,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.05</v>
+        <v>3.68</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -3059,7 +2999,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.57</v>
+        <v>4.52</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -3096,7 +3036,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -3133,7 +3073,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.63</v>
+        <v>5.15</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -3170,7 +3110,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.59</v>
+        <v>4.07</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -3207,7 +3147,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.27</v>
+        <v>4.47</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -3244,7 +3184,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.17</v>
+        <v>4</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -3275,14 +3215,8 @@
       <c r="E82" t="n">
         <v>1</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G82" t="n">
-        <v>21.03</v>
-      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3306,14 +3240,8 @@
       <c r="E83" t="n">
         <v>2</v>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G83" t="n">
-        <v>21.85</v>
-      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3337,14 +3265,8 @@
       <c r="E84" t="n">
         <v>3</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G84" t="n">
-        <v>21.98</v>
-      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3368,14 +3290,8 @@
       <c r="E85" t="n">
         <v>4</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G85" t="n">
-        <v>22.6</v>
-      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
     </row>
@@ -3399,14 +3315,8 @@
       <c r="E86" t="n">
         <v>5</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G86" t="n">
-        <v>20.65</v>
-      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
     </row>
@@ -3430,14 +3340,8 @@
       <c r="E87" t="n">
         <v>6</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G87" t="n">
-        <v>21.42</v>
-      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
     </row>
@@ -3461,14 +3365,8 @@
       <c r="E88" t="n">
         <v>7</v>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G88" t="n">
-        <v>22.74</v>
-      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
     </row>
@@ -3492,14 +3390,8 @@
       <c r="E89" t="n">
         <v>8</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G89" t="n">
-        <v>21.96</v>
-      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
     </row>
@@ -3523,14 +3415,8 @@
       <c r="E90" t="n">
         <v>9</v>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G90" t="n">
-        <v>20.97</v>
-      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
     </row>
@@ -3554,14 +3440,8 @@
       <c r="E91" t="n">
         <v>10</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G91" t="n">
-        <v>22.14</v>
-      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
     </row>
@@ -3702,7 +3582,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -3739,7 +3619,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -3850,7 +3730,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -3887,7 +3767,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -3924,7 +3804,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3961,7 +3841,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>51.14</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
@@ -3992,7 +3872,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>51.47</v>
+        <v>91.37</v>
       </c>
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
@@ -4023,7 +3903,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>52.18</v>
+        <v>93.51000000000001</v>
       </c>
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
@@ -4054,7 +3934,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>51.63</v>
+        <v>89.56999999999999</v>
       </c>
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
@@ -4085,7 +3965,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>55.36</v>
+        <v>96.65000000000001</v>
       </c>
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
@@ -4116,7 +3996,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>52.15</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
@@ -4147,7 +4027,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>50.42</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
@@ -4178,7 +4058,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>56.45</v>
+        <v>90.06</v>
       </c>
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
@@ -4209,7 +4089,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>53.75</v>
+        <v>92.03</v>
       </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
@@ -4240,7 +4120,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>52.54</v>
+        <v>96.86</v>
       </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
@@ -4271,7 +4151,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>20.97</v>
+        <v>21.17</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
@@ -4308,7 +4188,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>20.8</v>
+        <v>22.83</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
@@ -4345,7 +4225,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>21.83</v>
+        <v>22.61</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
@@ -4382,7 +4262,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>21.59</v>
+        <v>26.68</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
@@ -4419,7 +4299,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>20.72</v>
+        <v>21.92</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
@@ -4456,7 +4336,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>21.85</v>
+        <v>20.97</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
@@ -4493,7 +4373,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>21.2</v>
+        <v>21.94</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
@@ -4530,7 +4410,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>22.96</v>
+        <v>22.61</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
@@ -4567,7 +4447,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>21.06</v>
+        <v>21.49</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
@@ -4604,7 +4484,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>21.27</v>
+        <v>21.26</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
@@ -4635,14 +4515,8 @@
       <c r="E122" t="n">
         <v>1</v>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G122" t="n">
-        <v>27.59</v>
-      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
     </row>
@@ -4666,14 +4540,8 @@
       <c r="E123" t="n">
         <v>2</v>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G123" t="n">
-        <v>26.36</v>
-      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
     </row>
@@ -4697,14 +4565,8 @@
       <c r="E124" t="n">
         <v>3</v>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G124" t="n">
-        <v>26.99</v>
-      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
     </row>
@@ -4728,14 +4590,8 @@
       <c r="E125" t="n">
         <v>4</v>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G125" t="n">
-        <v>25.83</v>
-      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
     </row>
@@ -4759,14 +4615,8 @@
       <c r="E126" t="n">
         <v>5</v>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G126" t="n">
-        <v>26.13</v>
-      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
     </row>
@@ -4790,14 +4640,8 @@
       <c r="E127" t="n">
         <v>6</v>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
-        <v>25.84</v>
-      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
     </row>
@@ -4821,14 +4665,8 @@
       <c r="E128" t="n">
         <v>7</v>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>26.94</v>
-      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
     </row>
@@ -4852,14 +4690,8 @@
       <c r="E129" t="n">
         <v>8</v>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>25.64</v>
-      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
     </row>
@@ -4883,14 +4715,8 @@
       <c r="E130" t="n">
         <v>9</v>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>27.16</v>
-      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
     </row>
@@ -4914,14 +4740,8 @@
       <c r="E131" t="n">
         <v>10</v>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>25.21</v>
-      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
     </row>
@@ -4951,7 +4771,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.93</v>
+        <v>1.03</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
@@ -5025,7 +4845,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.87</v>
+        <v>0.95</v>
       </c>
       <c r="H134" t="inlineStr">
         <is>
@@ -5062,7 +4882,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
@@ -5099,7 +4919,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.92</v>
+        <v>1.05</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
@@ -5136,7 +4956,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
@@ -5173,7 +4993,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
@@ -5210,7 +5030,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
@@ -5247,7 +5067,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.98</v>
+        <v>1.14</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
@@ -5284,7 +5104,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
@@ -5321,7 +5141,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>7.91</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
@@ -5358,7 +5178,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>9.35</v>
+        <v>8.76</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
@@ -5395,7 +5215,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>7.12</v>
+        <v>8.23</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
@@ -5432,7 +5252,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>9.369999999999999</v>
+        <v>8.83</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
@@ -5469,7 +5289,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>8.65</v>
+        <v>8.09</v>
       </c>
       <c r="H146" t="inlineStr">
         <is>
@@ -5506,7 +5326,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>7.92</v>
+        <v>8.15</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
@@ -5543,7 +5363,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>7.35</v>
+        <v>8.1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
@@ -5580,7 +5400,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>7.91</v>
+        <v>7.99</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
@@ -5617,7 +5437,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>7.89</v>
+        <v>10.86</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
@@ -5654,7 +5474,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>7.99</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
@@ -5691,7 +5511,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>17.59</v>
+        <v>17.09</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
@@ -5728,7 +5548,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>17.14</v>
+        <v>19.05</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
@@ -5765,7 +5585,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>17.83</v>
+        <v>16.93</v>
       </c>
       <c r="H154" t="inlineStr">
         <is>
@@ -5802,7 +5622,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>17.45</v>
+        <v>17.98</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
@@ -5839,7 +5659,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>16.72</v>
+        <v>16.93</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
@@ -5876,7 +5696,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>17.63</v>
+        <v>20.28</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
@@ -5913,7 +5733,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>17.02</v>
+        <v>19.29</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
@@ -5950,7 +5770,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>17.1</v>
+        <v>17.14</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
@@ -5987,7 +5807,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>17.56</v>
+        <v>17.77</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
@@ -6024,7 +5844,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>16.98</v>
+        <v>17.02</v>
       </c>
       <c r="H161" t="inlineStr">
         <is>
@@ -6061,7 +5881,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>47.18</v>
+        <v>47.64</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
@@ -6098,7 +5918,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>42.52</v>
+        <v>44.49</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
@@ -6135,7 +5955,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>43.53</v>
+        <v>46.56</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
@@ -6172,7 +5992,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>47.86</v>
+        <v>48.56</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
@@ -6209,7 +6029,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>43.34</v>
+        <v>46.59</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
@@ -6246,7 +6066,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>45.85</v>
+        <v>51.64</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
@@ -6283,7 +6103,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>45.92</v>
+        <v>50.72</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
@@ -6320,7 +6140,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>43.23</v>
+        <v>48.61</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
@@ -6357,7 +6177,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>44.98</v>
+        <v>45.73</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
@@ -6394,7 +6214,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>43.85</v>
+        <v>46.92</v>
       </c>
       <c r="H171" t="inlineStr">
         <is>
@@ -6431,7 +6251,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>30.55</v>
+        <v>128.37</v>
       </c>
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
@@ -6462,7 +6282,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>30.58</v>
+        <v>131.5</v>
       </c>
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
@@ -6493,7 +6313,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>30.05</v>
+        <v>134.67</v>
       </c>
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
@@ -6524,7 +6344,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>33.59</v>
+        <v>130.94</v>
       </c>
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
@@ -6555,7 +6375,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>32.21</v>
+        <v>137.1</v>
       </c>
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
@@ -6586,7 +6406,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>32.38</v>
+        <v>128.39</v>
       </c>
       <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
@@ -6617,7 +6437,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>32.19</v>
+        <v>133.75</v>
       </c>
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
@@ -6648,7 +6468,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>31.43</v>
+        <v>125.39</v>
       </c>
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
@@ -6679,7 +6499,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>33</v>
+        <v>132.56</v>
       </c>
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
@@ -6710,7 +6530,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>31.7</v>
+        <v>133.64</v>
       </c>
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
@@ -6741,7 +6561,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>53.46</v>
+        <v>60.7</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
@@ -6778,7 +6598,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>51.29</v>
+        <v>51.38</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
@@ -6815,7 +6635,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>50.34</v>
+        <v>49.96</v>
       </c>
       <c r="H184" t="inlineStr">
         <is>
@@ -6852,7 +6672,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>54.38</v>
+        <v>52.97</v>
       </c>
       <c r="H185" t="inlineStr">
         <is>
@@ -6889,7 +6709,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>48.72</v>
+        <v>50.95</v>
       </c>
       <c r="H186" t="inlineStr">
         <is>
@@ -6926,7 +6746,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>54.17</v>
+        <v>51.27</v>
       </c>
       <c r="H187" t="inlineStr">
         <is>
@@ -6963,7 +6783,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>51.71</v>
+        <v>53.81</v>
       </c>
       <c r="H188" t="inlineStr">
         <is>
@@ -7000,7 +6820,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>53.55</v>
+        <v>52.29</v>
       </c>
       <c r="H189" t="inlineStr">
         <is>
@@ -7037,7 +6857,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>52.39</v>
+        <v>56.61</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
@@ -7074,7 +6894,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>53.21</v>
+        <v>53.06</v>
       </c>
       <c r="H191" t="inlineStr">
         <is>
@@ -7111,7 +6931,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>3.32</v>
+        <v>2.47</v>
       </c>
       <c r="H192" t="inlineStr">
         <is>
@@ -7148,7 +6968,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="H193" t="inlineStr">
         <is>
@@ -7185,7 +7005,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
@@ -7222,7 +7042,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
@@ -7259,7 +7079,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
@@ -7296,7 +7116,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.59</v>
+        <v>2.55</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
@@ -7333,7 +7153,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="H198" t="inlineStr">
         <is>
@@ -7370,7 +7190,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="H199" t="inlineStr">
         <is>
@@ -7407,7 +7227,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.58</v>
+        <v>3.27</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
@@ -7444,7 +7264,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.63</v>
+        <v>3.22</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
@@ -7475,14 +7295,8 @@
       <c r="E202" t="n">
         <v>1</v>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G202" t="n">
-        <v>14.67</v>
-      </c>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
       <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
     </row>
@@ -7506,14 +7320,8 @@
       <c r="E203" t="n">
         <v>2</v>
       </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G203" t="n">
-        <v>15.02</v>
-      </c>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
     </row>
@@ -7537,14 +7345,8 @@
       <c r="E204" t="n">
         <v>3</v>
       </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G204" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
     </row>
@@ -7568,14 +7370,8 @@
       <c r="E205" t="n">
         <v>4</v>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G205" t="n">
-        <v>14.28</v>
-      </c>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
     </row>
@@ -7599,14 +7395,8 @@
       <c r="E206" t="n">
         <v>5</v>
       </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G206" t="n">
-        <v>14.53</v>
-      </c>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
     </row>
@@ -7630,14 +7420,8 @@
       <c r="E207" t="n">
         <v>6</v>
       </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G207" t="n">
-        <v>13.95</v>
-      </c>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
     </row>
@@ -7661,14 +7445,8 @@
       <c r="E208" t="n">
         <v>7</v>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G208" t="n">
-        <v>14</v>
-      </c>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
     </row>
@@ -7692,14 +7470,8 @@
       <c r="E209" t="n">
         <v>8</v>
       </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G209" t="n">
-        <v>13.42</v>
-      </c>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
     </row>
@@ -7723,14 +7495,8 @@
       <c r="E210" t="n">
         <v>9</v>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G210" t="n">
-        <v>15.04</v>
-      </c>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
     </row>
@@ -7754,14 +7520,8 @@
       <c r="E211" t="n">
         <v>10</v>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="G211" t="n">
-        <v>14.41</v>
-      </c>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
     </row>
@@ -7791,7 +7551,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
@@ -7828,7 +7588,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
@@ -7865,7 +7625,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
@@ -7902,7 +7662,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
@@ -7939,7 +7699,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="H216" t="inlineStr">
         <is>
@@ -7976,7 +7736,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="H217" t="inlineStr">
         <is>
@@ -8013,7 +7773,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.63</v>
+        <v>2.03</v>
       </c>
       <c r="H218" t="inlineStr">
         <is>
@@ -8050,7 +7810,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="H219" t="inlineStr">
         <is>
@@ -8087,7 +7847,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="H220" t="inlineStr">
         <is>
@@ -8124,7 +7884,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.79</v>
+        <v>2.23</v>
       </c>
       <c r="H221" t="inlineStr">
         <is>
@@ -8161,7 +7921,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>61.67</v>
+        <v>59.39</v>
       </c>
       <c r="H222" t="inlineStr">
         <is>
@@ -8198,7 +7958,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>59.49</v>
+        <v>58.67</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
@@ -8235,7 +7995,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>62.25</v>
+        <v>61.46</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
@@ -8272,7 +8032,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>64.13</v>
+        <v>58.67</v>
       </c>
       <c r="H225" t="inlineStr">
         <is>
@@ -8309,7 +8069,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>59.13</v>
+        <v>58.64</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
@@ -8346,7 +8106,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>60.84</v>
+        <v>61.05</v>
       </c>
       <c r="H227" t="inlineStr">
         <is>
@@ -8383,7 +8143,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>62.68</v>
+        <v>65.20999999999999</v>
       </c>
       <c r="H228" t="inlineStr">
         <is>
@@ -8420,7 +8180,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>60</v>
+        <v>61.01</v>
       </c>
       <c r="H229" t="inlineStr">
         <is>
@@ -8457,7 +8217,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>64.06999999999999</v>
+        <v>65.63</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
@@ -8494,7 +8254,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>59.7</v>
+        <v>60.09</v>
       </c>
       <c r="H231" t="inlineStr">
         <is>
@@ -8531,7 +8291,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>36.93</v>
+        <v>37.16</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
@@ -8568,7 +8328,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>39.51</v>
+        <v>39.08</v>
       </c>
       <c r="H233" t="inlineStr">
         <is>
@@ -8605,7 +8365,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>38.57</v>
+        <v>39.68</v>
       </c>
       <c r="H234" t="inlineStr">
         <is>
@@ -8642,7 +8402,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>39.28</v>
+        <v>39.05</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
@@ -8679,7 +8439,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>37.77</v>
+        <v>39.97</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
@@ -8716,7 +8476,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>37.18</v>
+        <v>40.14</v>
       </c>
       <c r="H237" t="inlineStr">
         <is>
@@ -8753,7 +8513,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>37.59</v>
+        <v>38.91</v>
       </c>
       <c r="H238" t="inlineStr">
         <is>
@@ -8790,7 +8550,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>38.98</v>
+        <v>48.53</v>
       </c>
       <c r="H239" t="inlineStr">
         <is>
@@ -8827,7 +8587,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>37.83</v>
+        <v>39.42</v>
       </c>
       <c r="H240" t="inlineStr">
         <is>
@@ -8864,7 +8624,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>37.4</v>
+        <v>38.59</v>
       </c>
       <c r="H241" t="inlineStr">
         <is>
@@ -8901,7 +8661,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>27.6</v>
+        <v>30.31</v>
       </c>
       <c r="H242" t="inlineStr">
         <is>
@@ -8938,7 +8698,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>25.6</v>
+        <v>29.06</v>
       </c>
       <c r="H243" t="inlineStr">
         <is>
@@ -8975,7 +8735,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>26.25</v>
+        <v>27.36</v>
       </c>
       <c r="H244" t="inlineStr">
         <is>
@@ -9012,7 +8772,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>29.33</v>
+        <v>29.63</v>
       </c>
       <c r="H245" t="inlineStr">
         <is>
@@ -9049,7 +8809,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>25.92</v>
+        <v>25.79</v>
       </c>
       <c r="H246" t="inlineStr">
         <is>
@@ -9086,7 +8846,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>26.83</v>
+        <v>28.89</v>
       </c>
       <c r="H247" t="inlineStr">
         <is>
@@ -9123,7 +8883,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>26.24</v>
+        <v>26.92</v>
       </c>
       <c r="H248" t="inlineStr">
         <is>
@@ -9160,7 +8920,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>28.47</v>
+        <v>25.49</v>
       </c>
       <c r="H249" t="inlineStr">
         <is>
@@ -9197,7 +8957,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>28.18</v>
+        <v>25.25</v>
       </c>
       <c r="H250" t="inlineStr">
         <is>
@@ -9234,7 +8994,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>27.34</v>
+        <v>25.26</v>
       </c>
       <c r="H251" t="inlineStr">
         <is>
@@ -9419,7 +9179,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="H256" t="inlineStr">
         <is>
@@ -9456,7 +9216,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="H257" t="inlineStr">
         <is>
@@ -9641,7 +9401,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>9.44</v>
+        <v>10.54</v>
       </c>
       <c r="H262" t="inlineStr">
         <is>
@@ -9678,7 +9438,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>13.16</v>
+        <v>13.75</v>
       </c>
       <c r="H263" t="inlineStr">
         <is>
@@ -9715,7 +9475,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>9.75</v>
+        <v>11.85</v>
       </c>
       <c r="H264" t="inlineStr">
         <is>
@@ -9752,7 +9512,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>12.02</v>
+        <v>11.08</v>
       </c>
       <c r="H265" t="inlineStr">
         <is>
@@ -9789,7 +9549,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>10</v>
+        <v>10.48</v>
       </c>
       <c r="H266" t="inlineStr">
         <is>
@@ -9826,7 +9586,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>10.72</v>
+        <v>10.59</v>
       </c>
       <c r="H267" t="inlineStr">
         <is>
@@ -9863,7 +9623,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>9.74</v>
+        <v>13.91</v>
       </c>
       <c r="H268" t="inlineStr">
         <is>
@@ -9900,7 +9660,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>10.48</v>
+        <v>10.66</v>
       </c>
       <c r="H269" t="inlineStr">
         <is>
@@ -9937,7 +9697,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>11.3</v>
+        <v>10.42</v>
       </c>
       <c r="H270" t="inlineStr">
         <is>
@@ -9974,7 +9734,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>10.5</v>
+        <v>13.34</v>
       </c>
       <c r="H271" t="inlineStr">
         <is>
@@ -10011,7 +9771,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>6.44</v>
+        <v>6.6</v>
       </c>
       <c r="H272" t="inlineStr">
         <is>
@@ -10048,7 +9808,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>5.89</v>
+        <v>5.35</v>
       </c>
       <c r="H273" t="inlineStr">
         <is>
@@ -10085,7 +9845,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>6.97</v>
+        <v>7.04</v>
       </c>
       <c r="H274" t="inlineStr">
         <is>
@@ -10122,7 +9882,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>6.47</v>
+        <v>7.4</v>
       </c>
       <c r="H275" t="inlineStr">
         <is>
@@ -10159,7 +9919,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>5.49</v>
+        <v>5.87</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
@@ -10196,7 +9956,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>5.18</v>
+        <v>6.56</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
@@ -10233,7 +9993,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>5.28</v>
+        <v>5.98</v>
       </c>
       <c r="H278" t="inlineStr">
         <is>
@@ -10270,7 +10030,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>5.03</v>
+        <v>6.23</v>
       </c>
       <c r="H279" t="inlineStr">
         <is>
@@ -10307,7 +10067,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>5.36</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="H280" t="inlineStr">
         <is>
@@ -10344,7 +10104,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>5.31</v>
+        <v>8.01</v>
       </c>
       <c r="H281" t="inlineStr">
         <is>
@@ -10381,7 +10141,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>10.8</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
@@ -10412,7 +10172,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>11.94</v>
+        <v>73.58</v>
       </c>
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
@@ -10443,7 +10203,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>13.43</v>
+        <v>76</v>
       </c>
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
@@ -10474,7 +10234,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>11.46</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
@@ -10505,7 +10265,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>12.43</v>
+        <v>69.3</v>
       </c>
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
@@ -10536,7 +10296,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>11.14</v>
+        <v>68.73</v>
       </c>
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
@@ -10567,7 +10327,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>11.14</v>
+        <v>73.03</v>
       </c>
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
@@ -10598,7 +10358,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>11.36</v>
+        <v>67.88</v>
       </c>
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
@@ -10629,7 +10389,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>11.95</v>
+        <v>73.56</v>
       </c>
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
@@ -10660,7 +10420,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>12.19</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
@@ -10691,7 +10451,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>57.76</v>
+        <v>82.47</v>
       </c>
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
@@ -10722,7 +10482,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>59.3</v>
+        <v>81.59</v>
       </c>
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
@@ -10753,7 +10513,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>62.22</v>
+        <v>83.5</v>
       </c>
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
@@ -10784,7 +10544,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>61.88</v>
+        <v>80.11</v>
       </c>
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
@@ -10815,7 +10575,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>62.37</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
@@ -10846,7 +10606,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>64.94</v>
+        <v>76.28</v>
       </c>
       <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
@@ -10877,7 +10637,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>64.7</v>
+        <v>79.06</v>
       </c>
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
@@ -10908,7 +10668,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>61.87</v>
+        <v>77.23</v>
       </c>
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
@@ -10939,7 +10699,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>62</v>
+        <v>81.92</v>
       </c>
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
@@ -10970,7 +10730,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>57.78</v>
+        <v>80.54000000000001</v>
       </c>
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
@@ -12993,8 +12753,14 @@
       <c r="E356" t="n">
         <v>5</v>
       </c>
-      <c r="F356" t="inlineStr"/>
-      <c r="G356" t="inlineStr"/>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="G356" t="n">
+        <v>1000</v>
+      </c>
       <c r="H356" t="inlineStr">
         <is>
           <t>timeout</t>
